--- a/data/case1/20/Plm2_3.xlsx
+++ b/data/case1/20/Plm2_3.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.34017361427623882</v>
+        <v>-0.30544054395605258</v>
       </c>
       <c r="B1" s="0">
-        <v>0.33939963876299828</v>
+        <v>0.30473204367729068</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.28116647785752669</v>
+        <v>-0.25861888961546953</v>
       </c>
       <c r="B2" s="0">
-        <v>0.27830602036473095</v>
+        <v>0.25584808891436417</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.17535536376027494</v>
+        <v>-0.13457170876834468</v>
       </c>
       <c r="B3" s="0">
-        <v>0.17453738477383851</v>
+        <v>0.13397830239548369</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.16253738491447578</v>
+        <v>-0.12197830240938501</v>
       </c>
       <c r="B4" s="0">
-        <v>0.16180909368107166</v>
+        <v>0.12146770836844567</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.14974314072806649</v>
+        <v>-0.11546770841575338</v>
       </c>
       <c r="B5" s="0">
-        <v>0.14814122410666819</v>
+        <v>0.11446963133783772</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.11746959861002848</v>
+        <v>-0.064941212717385177</v>
       </c>
       <c r="B6" s="0">
-        <v>0.11728116654317633</v>
+        <v>0.064879455677024023</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.097281167175998107</v>
+        <v>-0.044879455735930662</v>
       </c>
       <c r="B7" s="0">
-        <v>0.096799826268510358</v>
+        <v>0.044769968439759111</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.068790561429839414</v>
+        <v>-0.024769968499028572</v>
       </c>
       <c r="B8" s="0">
-        <v>0.068388245881512155</v>
+        <v>0.024724058744264532</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.062388246437250494</v>
+        <v>-0.062375301207000966</v>
       </c>
       <c r="B9" s="0">
-        <v>0.062045654481876156</v>
+        <v>0.062040888810958705</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.056045655045672049</v>
+        <v>-0.056040888860955818</v>
       </c>
       <c r="B10" s="0">
-        <v>0.055997636569323106</v>
+        <v>0.055989502400016988</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.05149763712409694</v>
+        <v>-0.051489502449047819</v>
       </c>
       <c r="B11" s="0">
-        <v>0.051415463347964874</v>
+        <v>0.05140706211999202</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.045415463914778353</v>
+        <v>-0.045407062170368384</v>
       </c>
       <c r="B12" s="0">
-        <v>0.045158757104249769</v>
+        <v>0.04515674374590084</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.039158757679745193</v>
+        <v>-0.039156743797103211</v>
       </c>
       <c r="B13" s="0">
-        <v>0.039088957736491459</v>
+        <v>0.039088334212947551</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.027088958354950066</v>
+        <v>-0.02708833426881796</v>
       </c>
       <c r="B14" s="0">
-        <v>0.02705533262572235</v>
+        <v>0.027054908129760413</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.02105533320569819</v>
+        <v>-0.02105490818141309</v>
       </c>
       <c r="B15" s="0">
-        <v>0.021028880455574495</v>
+        <v>0.021028560284612752</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015028881037325803</v>
+        <v>-0.015028560336449059</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015004531054376935</v>
+        <v>0.01500492736479786</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090045316385412022</v>
+        <v>-0.0090049274168828575</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999993951224155</v>
+        <v>0.0089999999456455981</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.048233161424093396</v>
+        <v>-0.036113154109568057</v>
       </c>
       <c r="B18" s="0">
-        <v>0.048208087854138881</v>
+        <v>0.036097442699254856</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.039208088366711635</v>
+        <v>-0.0270974427463333</v>
       </c>
       <c r="B19" s="0">
-        <v>0.039034770204054325</v>
+        <v>0.027014331127406699</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.030034770723212034</v>
+        <v>-0.018014331174931897</v>
       </c>
       <c r="B20" s="0">
-        <v>0.030007673072331542</v>
+        <v>0.018004351966313337</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.021007673592642995</v>
+        <v>-0.0090043520139273525</v>
       </c>
       <c r="B21" s="0">
-        <v>0.020984194011757218</v>
+        <v>0.0089999999523433516</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093950657131911086</v>
+        <v>-0.11227638019451902</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093636740408895136</v>
+        <v>0.11180685943261892</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084636740940977617</v>
+        <v>-0.10280685948164958</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084127234886532953</v>
+        <v>0.10201754603829549</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042127235648944605</v>
+        <v>-0.042128176842693321</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999233600427</v>
+        <v>0.041999999925202758</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.0246716260326032</v>
+        <v>-0.043528418668874025</v>
       </c>
       <c r="B25" s="0">
-        <v>0.024636848238401399</v>
+        <v>0.043478432941949308</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.018636848774828962</v>
+        <v>-0.037478432990525334</v>
       </c>
       <c r="B26" s="0">
-        <v>0.018593945196315076</v>
+        <v>0.037421196010441804</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.012593945733184508</v>
+        <v>-0.031421196059101764</v>
       </c>
       <c r="B27" s="0">
-        <v>0.012451874963048226</v>
+        <v>0.031249583666911107</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0064518755014928431</v>
+        <v>0.0030903059287554768</v>
       </c>
       <c r="B28" s="0">
-        <v>0.0063595188410001668</v>
+        <v>-0.0031146839482163458</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0056404805796663737</v>
+        <v>0.01511468389475823</v>
       </c>
       <c r="B29" s="0">
-        <v>-0.0056792888326970825</v>
+        <v>-0.015129025705583388</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.025679288199901062</v>
+        <v>0.035129025646302825</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.025768458882800882</v>
+        <v>-0.03534851776862169</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.040768458286626341</v>
+        <v>0.050348517713445062</v>
       </c>
       <c r="B31" s="0">
-        <v>-0.040825300351462701</v>
+        <v>-0.050459265808216358</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.061825299716320892</v>
+        <v>0.066658495727471845</v>
       </c>
       <c r="B32" s="0">
-        <v>-0.061955533400047003</v>
+        <v>-0.066839425766595184</v>
       </c>
     </row>
   </sheetData>
